--- a/平成31年度/シースリーカップ/2.一次案内/シースリーカップ「弁当・パンフ・懇親会」申込書(チーム名）.xlsx
+++ b/平成31年度/シースリーカップ/2.一次案内/シースリーカップ「弁当・パンフ・懇親会」申込書(チーム名）.xlsx
@@ -703,47 +703,47 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1125,11 +1125,11 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1139,11 +1139,11 @@
       <c r="B6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1153,11 +1153,11 @@
       <c r="B7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1167,11 +1167,11 @@
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1181,13 +1181,13 @@
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1197,11 +1197,11 @@
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1307,7 +1307,7 @@
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="19">
-        <v>43302</v>
+        <v>43666</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="20">
@@ -1324,7 +1324,7 @@
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="19">
-        <v>43303</v>
+        <v>43667</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="20">
@@ -1562,14 +1562,14 @@
       <c r="B36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="4"/>
       <c r="F36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
@@ -1578,14 +1578,14 @@
       <c r="B37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="4"/>
       <c r="F37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
@@ -1594,14 +1594,14 @@
       <c r="B38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="4"/>
       <c r="F38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
@@ -1644,6 +1644,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="G36:H36"/>
@@ -1652,11 +1657,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C36:D38 G36:H38 C18:C19 C5:C10 D5:G7 D9:G10">
